--- a/regions_data/Ciepłownictwo/nakłady.xlsx
+++ b/regions_data/Ciepłownictwo/nakłady.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Dolnośląskie</t>
   </si>
@@ -68,12 +68,24 @@
   <si>
     <t>Zachodniopomorskie</t>
   </si>
+  <si>
+    <t>Moc zainstalowana</t>
+  </si>
+  <si>
+    <t>Inwestycje na MW</t>
+  </si>
+  <si>
+    <t>Dlugosc siecie</t>
+  </si>
+  <si>
+    <t>Inwestycje na 1km sieci</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +93,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,14 +123,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1258,7 +1301,769 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stosunek nakładów do długości sieci ciepłowniczej</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$L$2:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.80572786063854562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5514408163265307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71770338653172439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2738523263654753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89334625573431525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85682595014807506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1555596064042697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67757427208422438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42318004899292327</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78707488497540845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80630509113764914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90667373504765558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41268177911474002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90104548220261627</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60648333333333337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78422806004618928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17DB-4A50-914B-A9C3B1BB7576}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="48"/>
+        <c:overlap val="-27"/>
+        <c:axId val="541458815"/>
+        <c:axId val="549379887"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Stosunek nakładów do mocy zainstalowanej</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dolnośląskie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kujawsko-pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lubelskie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lubuskie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Łódzkie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Małopolskie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mazowieckie</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Opolskie</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Podkarpackie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Podlaskie</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pomorskie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Śląskie</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Świętokrzyskie</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Warmińsko-mazurskie</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Wielkopolskie</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Zachodniopomorskie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$J$2:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.39211525702458239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42340671413594277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27281914696851994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3734551744588317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40039152090814312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32361836739449584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34455207017613654</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26135621827411165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19365553964003238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68540107764575842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34351740574121675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26983248300938528</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15520169696969696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40524546760621188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23740636398683318</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3069982370490914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17DB-4A50-914B-A9C3B1BB7576}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="544831247"/>
+        <c:axId val="480421039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="541458815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549379887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549379887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Stosunek nakładów na inwestycje w latach 20010-2015 do długości sieci ciepłowniczej (2015) [mln zł/km]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541458815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="480421039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000"/>
+                  <a:t>Tyt</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Stosunek nakładów na inwestycje w latach 20010-2015 do mocy zainstalowanej (2015) [mln zł/MW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544831247"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="544831247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="480421039"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1803,20 +2608,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137671</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73639</xdr:rowOff>
+      <xdr:colOff>311842</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>149839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1012371</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:colOff>1186542</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>70436</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1836,6 +3144,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC798CE-BC4B-46F3-98DB-B642E0A2CBBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2107,10 +3451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2119,7 +3463,7 @@
     <col min="2" max="6" width="21.109375" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2143,6 +3487,18 @@
       <c r="G1">
         <v>2015</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2166,11 +3522,24 @@
       <c r="G2" s="2">
         <v>279.63890000000004</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="H2" s="2">
+        <f>SUM(B2:G2)</f>
+        <v>1382.9512999999997</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3526.9</v>
+      </c>
+      <c r="J2" s="1">
+        <f>H2/I2</f>
+        <v>0.39211525702458239</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1716.4</v>
+      </c>
+      <c r="L2" s="1">
+        <f>H2/K2</f>
+        <v>0.80572786063854562</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2194,11 +3563,24 @@
       <c r="G3" s="2">
         <v>719.01480000000004</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H17" si="0">SUM(B3:G3)</f>
+        <v>1938.5253000000002</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4578.3999999999996</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J17" si="1">H3/I3</f>
+        <v>0.42340671413594277</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1249.5</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L17" si="2">H3/K3</f>
+        <v>1.5514408163265307</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2222,11 +3604,24 @@
       <c r="G4" s="2">
         <v>75.969899999999996</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>737.51199999999994</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2703.3</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27281914696851994</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1027.5999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71770338653172439</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2250,11 +3645,24 @@
       <c r="G5" s="2">
         <v>109.8661</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>377.82460000000003</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1011.7</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3734551744588317</v>
+      </c>
+      <c r="K5" s="5">
+        <v>296.60000000000002</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2738523263654753</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2278,11 +3686,24 @@
       <c r="G6" s="2">
         <v>368.53659999999996</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>1382.6319999999998</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3453.2</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40039152090814312</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1547.7</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89334625573431525</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2306,11 +3727,24 @@
       <c r="G7" s="2">
         <v>376.43609999999995</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1388.7435</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4291.3</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32361836739449584</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1620.8</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85682595014807506</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2334,11 +3768,24 @@
       <c r="G8" s="2">
         <v>676.30190000000005</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>3464.3677000000002</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10054.700000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34455207017613654</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2998</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1555596064042697</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2362,11 +3809,24 @@
       <c r="G9" s="2">
         <v>161.78910000000002</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>411.8974</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1576</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26135621827411165</v>
+      </c>
+      <c r="K9" s="5">
+        <v>607.9</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67757427208422438</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2390,11 +3850,24 @@
       <c r="G10" s="2">
         <v>60.054400000000001</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>310.95269999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1605.7</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19365553964003238</v>
+      </c>
+      <c r="K10" s="5">
+        <v>734.8</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42318004899292327</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2418,11 +3891,24 @@
       <c r="G11" s="2">
         <v>57.662699999999994</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>496.09329999999994</v>
+      </c>
+      <c r="I11" s="4">
+        <v>723.8</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68540107764575842</v>
+      </c>
+      <c r="K11" s="5">
+        <v>630.29999999999995</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78707488497540845</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2446,11 +3932,24 @@
       <c r="G12" s="2">
         <v>302.05159999999995</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>1282.8313999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3734.4</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34351740574121675</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1591</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80630509113764914</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2474,11 +3973,24 @@
       <c r="G13" s="2">
         <v>881.4547</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>2834.8060999999998</v>
+      </c>
+      <c r="I13" s="3">
+        <v>10505.8</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26983248300938528</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3126.6</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90667373504765558</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2502,11 +4014,24 @@
       <c r="G14" s="2">
         <v>19.355</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>192.06209999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1237.5</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15520169696969696</v>
+      </c>
+      <c r="K14" s="5">
+        <v>465.4</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41268177911474002</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2530,11 +4055,24 @@
       <c r="G15" s="2">
         <v>80.012799999999999</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>592.3472999999999</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1461.7</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40524546760621188</v>
+      </c>
+      <c r="K15" s="5">
+        <v>657.4</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90104548220261627</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2558,11 +4096,24 @@
       <c r="G16" s="2">
         <v>170.76520000000002</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>800.55800000000011</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3372.1</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23740636398683318</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1320</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60648333333333337</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2586,13 +4137,27 @@
       <c r="G17" s="2">
         <v>133.1156</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>679.14149999999995</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2212.1999999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3069982370490914</v>
+      </c>
+      <c r="K17" s="5">
+        <v>866</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78422806004618928</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -2603,6 +4168,238 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I25" s="1"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I38" s="2"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I46" s="2"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
